--- a/tools/plantilla.xlsx
+++ b/tools/plantilla.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\063\Desktop\backupScripts\tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\063\Desktop\backupScripts\api\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E21192AF-A2B8-411F-9C40-21372282FC65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8CA384C-21AE-4513-83E3-01F3A51B9080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,10 +52,10 @@
     <t>Enlace YouTube</t>
   </si>
   <si>
-    <t>Enlace Drive</t>
-  </si>
-  <si>
     <t>Nota</t>
+  </si>
+  <si>
+    <t>Enlace OneDrive</t>
   </si>
 </sst>
 </file>
@@ -124,7 +124,7 @@
     <tableColumn id="8" xr3:uid="{93CF04B4-2C7C-4FF7-97CF-E61743F8F792}" name="Descargado Por"/>
     <tableColumn id="9" xr3:uid="{68ABC5F4-7A96-4CC4-AAE0-B59383CF788D}" name="Fecha Descarga (Backup)"/>
     <tableColumn id="10" xr3:uid="{9D968B2B-2876-4618-8EF1-9936606ADFB7}" name="Enlace YouTube"/>
-    <tableColumn id="11" xr3:uid="{392DC881-65CB-417D-931B-4BEB68DDC4E7}" name="Enlace Drive"/>
+    <tableColumn id="11" xr3:uid="{392DC881-65CB-417D-931B-4BEB68DDC4E7}" name="Enlace OneDrive"/>
     <tableColumn id="12" xr3:uid="{F7081983-BB6B-4DBF-B557-2C3C88112FB7}" name="Nota"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -396,8 +396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,7 +412,7 @@
     <col min="8" max="8" width="16.7109375" customWidth="1"/>
     <col min="9" max="9" width="24.7109375" customWidth="1"/>
     <col min="10" max="10" width="17.140625" customWidth="1"/>
-    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -448,10 +448,10 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/tools/plantilla.xlsx
+++ b/tools/plantilla.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\063\Desktop\backupScripts\api\tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\aut-backup\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8CA384C-21AE-4513-83E3-01F3A51B9080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A44A956-D612-4E0D-BCB4-937935F43EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="plantilla" sheetId="2" r:id="rId1"/>
@@ -62,10 +62,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -88,13 +96,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -394,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="B136" workbookViewId="0">
+      <selection activeCell="L150" sqref="L150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,6 +465,9 @@
         <v>10</v>
       </c>
     </row>
+    <row r="150" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L150" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
